--- a/Budget_List.xlsx
+++ b/Budget_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\COLLEGE\19_20\Fall_19\CompE_496A\DualPowerGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A978821-5A7B-4139-A330-C4FEA2BB4807}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB1D6B6-B41F-4874-A8E9-961F4EE1D54D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F42F3092-2E0A-4A35-9490-69F6751A6ADD}"/>
+    <workbookView xWindow="-6570" yWindow="3360" windowWidth="15375" windowHeight="7875" xr2:uid="{F42F3092-2E0A-4A35-9490-69F6751A6ADD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,6 +73,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,8 +106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +427,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +439,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>233.49</v>
       </c>
     </row>
@@ -441,7 +447,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>500</v>
       </c>
     </row>
@@ -449,7 +455,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>19.95</v>
       </c>
     </row>
@@ -457,7 +463,7 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
     </row>
@@ -465,7 +471,7 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>10</v>
       </c>
     </row>
@@ -473,7 +479,7 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>12</v>
       </c>
     </row>
@@ -481,7 +487,7 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>100</v>
       </c>
     </row>
@@ -489,7 +495,7 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>7</v>
       </c>
     </row>
@@ -497,7 +503,7 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>7</v>
       </c>
     </row>
@@ -505,7 +511,7 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>2</v>
       </c>
     </row>
@@ -513,7 +519,7 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>5</v>
       </c>
     </row>
@@ -521,17 +527,18 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="B13" s="1">
         <f>SUM(B1,B12)</f>
         <v>238.49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>